--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_35.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_35.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sayuri Sakamoto</t>
+          <t>Shohei Watanabe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
